--- a/Doval Constructions/35973/res.xlsx
+++ b/Doval Constructions/35973/res.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Doval Constructions\35973\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A4683DD-919A-4BF6-907F-4C5E082BBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5C6EC7-4507-4667-883B-5CEF55204A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="585" windowWidth="28890" windowHeight="19710" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="11610" yWindow="2685" windowWidth="26700" windowHeight="17625" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$441</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="250">
   <si>
     <t>type</t>
   </si>
@@ -47,6 +50,903 @@
   </si>
   <si>
     <t>Resource Id</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>Lot Boundaries</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Lot Size: Each Stormwater Structure</t>
+  </si>
+  <si>
+    <t>Check Item - Check &amp; Verify</t>
+  </si>
+  <si>
+    <t>Setout</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Stormwater structures set out in accordance with the details shown in the drawing.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3_x000D_
+Cl3.1</t>
+  </si>
+  <si>
+    <t>Excavation</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Excavation constructed to the shapes, alignment, and level shown on the drawings._x000D_
+_x000D_
+Where in situ material at the bottom of excavations is other than rock, the material has been compacted to not less than 95 percent standard compaction as determined by AS 1289.1-2000 Methods of testing soils for engineering purposes - General requirements and list of methods._x000D_
+_x000D_
+Compaction Testing: 1 test per structure foundation</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point</t>
+  </si>
+  <si>
+    <t>Reference - RID/15/2018 _x000D_
+Cl 7.0_x000D_
+&amp;_x000D_
+Standard specification No. 3_x000D_
+Cl3.3</t>
+  </si>
+  <si>
+    <t>Hold Point</t>
+  </si>
+  <si>
+    <t>Installation Precast Base</t>
+  </si>
+  <si>
+    <t>Check Item - Check and Verify</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3_x000D_
+Cl3.2</t>
+  </si>
+  <si>
+    <t>Concrete Benching</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Concrete benching has been provided to manholes, gullies and inlet pits and is shaped to the shapes specified and has smooth, even surfaces and neat edges</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3_x000D_
+Cl6.3</t>
+  </si>
+  <si>
+    <t>Joining of Precast Sections</t>
+  </si>
+  <si>
+    <t>Reference - Humes Installation instructions</t>
+  </si>
+  <si>
+    <t>Pipe Penetration Cut Outs</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Cut outs for pipe penetrations have been made using concrete saws or drills in such a manner as to minimise damage to the pre-cast units._x000D_
+_x000D_
+ Precast concrete shaft sections joints have been made watertight using an epoxy compound or using cement mortar and the joints have been be finished to provide smooth surfaces, uniform with the inner surfaces of the structures</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3_x000D_
+Cl7.3</t>
+  </si>
+  <si>
+    <t>Concrete Top Slab/Entry Units</t>
+  </si>
+  <si>
+    <t>Backfilling</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Backfilling has been completed in accordance with Stormwater Pipe Installation - ITP</t>
+  </si>
+  <si>
+    <t>Reference - Stormwater Pipe Installation ITP</t>
+  </si>
+  <si>
+    <t>Final Verification</t>
+  </si>
+  <si>
+    <t>Contractor's Quality Representative Verify that the Above has been Constructed according to Specification</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>Print Name:</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Client Verify that the Above has been Constructed according to Specification</t>
+  </si>
+  <si>
+    <t>signoff</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Installation of Insitu Stormwater Structures</t>
+  </si>
+  <si>
+    <t>Lot Size: Each Stormwater Structures</t>
+  </si>
+  <si>
+    <t>Formwork Walls</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Where the sides of excavations are in solid ground, the manhole shafts may be constructed without the use of backforms._x000D_
+_x000D_
+Where concrete is placed without the use of backforms, the specified wall thicknesses is increased by not less than 50mm</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 6_x000D_
+Cl6.3</t>
+  </si>
+  <si>
+    <t>Access Chamber/Gully Pit Walls</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - The walls of gullies and manholes are constructed so the thickness is nowhere less than the minimum shown on the plans nor greater than 300mm above the design thickness.</t>
+  </si>
+  <si>
+    <t>Concrete Batching</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Ready mixed concrete is supplied by a manufacturer:_x000D_
+(a) approved by the local government;_x000D_
+(b) which has an accredited quality assurance system.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 8_x000D_
+Cl2.5</t>
+  </si>
+  <si>
+    <t>Concrete Testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - The frequency of sampling and testing to be in accordance with the Department of Transport and Main Roads – MRTS070 Concrete Technical Specification – Sampling Frequencies per Lot for 28 Day Strength Tests.</t>
+  </si>
+  <si>
+    <t>Check Item - Test Results</t>
+  </si>
+  <si>
+    <t>Reference - Quotation Notes Cl25.0</t>
+  </si>
+  <si>
+    <t>Concrete Slump</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 7_x000D_
+Cl2.4</t>
+  </si>
+  <si>
+    <t>Approval to place concrete</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - All concrete is placed in dry conditions and no concrete is placed until the formwork, falsework, and reinforcing materials have been inspected and approved by the Inspector. Hold Point</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 8_x000D_
+Cl4.1</t>
+  </si>
+  <si>
+    <t>Placing time limit</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 8_x000D_
+Cl4.3</t>
+  </si>
+  <si>
+    <t>Removal of Forms/Falsework</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 8_x000D_
+Cl6.2</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Concrete benching is provided to manholes, gullies and inlet pits and is shaped to the shape specified and has smooth, even surfaces and neat edges.</t>
+  </si>
+  <si>
+    <t>Pipe Joint</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - The joints between access chambers/gully pits and pipes shall be made water tight using cement mortar and shall be finished to provide smooth surfaces, uniform with the inner surfaces of the chamber/pits.</t>
+  </si>
+  <si>
+    <t>03.02 - Supply and Installation of Precast Concrete Pipe</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Lot Number established with the Lot boundaries of the works clearly defined for traceability within_x000D_
+the works</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Bed Zone Material: 5mm or 10mm screenings._x000D_
+Embedment Zone Material: 5mm or 10mm screenings_x000D_
+Backfill Material: Granular fill comprising rock (75mm maximum size, non plastic open graded material) or crusher run recycled concrete.</t>
+  </si>
+  <si>
+    <t>Check Item - Check Item</t>
+  </si>
+  <si>
+    <t>Reference - Note 2 IPEA STD DRW DS-030</t>
+  </si>
+  <si>
+    <t>Geometric Tolerances</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3_x000D_
+Cl4.2</t>
+  </si>
+  <si>
+    <t>Trench Foundation</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Trench Foundation Inspected prior to placing of bedding material. Hold Point</t>
+  </si>
+  <si>
+    <t>Reference - RID/14/2018 _x000D_
+&amp;_x000D_
+RID/15/2018 _x000D_
+Cl 7.0</t>
+  </si>
+  <si>
+    <t>Unsuitable Trench Foundation</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Where the excavation encounters ground water or other poor ground conditions at foundation, the depth of the bedding and surround material is to be increased to provide adequate support for the pipe as approved by the local government. Hold Point</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3_x000D_
+Cl3.3</t>
+  </si>
+  <si>
+    <t>Drainage of Bedding Material</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Upstream of each headwall, manhole, or gully (other than an end of line gully), a 3.0 metre length of 100mm diameter sub-soil drainage pipe has been laid in the bedding material.</t>
+  </si>
+  <si>
+    <t>Pipe Laying</t>
+  </si>
+  <si>
+    <t>Jointing Pipes - Spigot and Socket</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Where specified, spigot and socket pipes are joined by elastomeric ring joints which is in accordance with AS 1646–2007 Elastomeric seals for waterworks purposes–General requirements.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3_x000D_
+Cl4.3</t>
+  </si>
+  <si>
+    <t>Jointing Pipes - Flush Joint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipe Backfill </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Backfill is not placed until the Culvert pipe has been inspected and approved</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3_x000D_
+Cl5.1</t>
+  </si>
+  <si>
+    <t>Pipe Backfill - Road Reserve</t>
+  </si>
+  <si>
+    <t>Reference - RID/14/2018 _x000D_
+&amp;_x000D_
+RID/15/2018 _x000D_
+Cl 26.0</t>
+  </si>
+  <si>
+    <t>Pipe Backfill - Drainage Easement</t>
+  </si>
+  <si>
+    <t>Reference - Quotation Notes Cl 57.0</t>
+  </si>
+  <si>
+    <t>Submission of material Testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Pavement material compliance testing is carried out by a NATA registered or equivalent accredited soils testing laboratory._x000D_
+_x000D_
+Prior to the use of road base material, the developer is to submit current certified evidence obtained within the last twelve months</t>
+  </si>
+  <si>
+    <t>Check Item - Material Submission</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 1_x000D_
+Cl3.1</t>
+  </si>
+  <si>
+    <t>Layer Placement Thickness</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Where the required compacted thickness of any pavement course is 200mm or less, the pavement material is spread and compacted in one layer._x000D_
+_x000D_
+Where the required compacted thickness of any pavement course is more than 200mm, the pavement material is compacted in two or more layers each not less than 75mm compacted thickness and not greater than 150mm compacted thickness.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 6_x000D_
+Cl4.2</t>
+  </si>
+  <si>
+    <t>Compaction</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+On all transverse stormwater road crossings, field density testing must be carried out at a frequency of one test per layer of granular pavement material over each section of new pipeline. On all subsequent roads, field density tests must be carried out at a frequency of one test per layer every 50m of new pipeline unless directed otherwise by the Superintendent_x000D_
+_x000D_
+Transverse Lines: 1 test per Stormwater Section_x000D_
+Longitudinal Lines: 1 test per 50m of pipeline</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 6_x000D_
+Cl6.1</t>
+  </si>
+  <si>
+    <t>Geometrics</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - The finished pavement complies with the alignment and dimensions shown on the approved drawings or within the tolerances specified in Table 5.1.1 - Tolerance on the alignment, grade and crossfall of this standard specification.</t>
+  </si>
+  <si>
+    <t>Check Item - Survey</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 6_x000D_
+Cl5.1</t>
+  </si>
+  <si>
+    <t>Proof Roll</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Proof rolling of the base course layer prior to placement of Asphaltic Concrete(AC) or Concrete kerb and channel shall constitute a Hold Point_x000D_
+_x000D_
+Proof rolling of all other intermediate layers of pavement materials shall constitute a Witness Point</t>
+  </si>
+  <si>
+    <t>Check Item - Hold Point / Witness point</t>
+  </si>
+  <si>
+    <t>Reference - Quotation Notes Cl 59.0</t>
+  </si>
+  <si>
+    <t>Hold Point / Witness Point</t>
+  </si>
+  <si>
+    <t>Approval to Place Subsequent Layer</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - No subsequent pavement course shall be placed until the previous course, that is the subgrade, sub-base, base or existing pavement, has been inspected by the local government.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Item - Hold Point </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold Point </t>
+  </si>
+  <si>
+    <t>Concrete Works</t>
+  </si>
+  <si>
+    <t>Concrete batching</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 7_x000D_
+Cl2.5</t>
+  </si>
+  <si>
+    <t>Concrete testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+The frequency of sampling and testing to be in accordance with the Department of Transport and Main Roads – MRTS070 Concrete Technical Specification – Sampling Frequencies per Lot for 28 Day Strength Tests._x000D_
+_x000D_
+However,_x000D_
+_x000D_
+For concrete footpath and driveway slab construction, the frequency of testing is to be reduced to one (1) batch per day. Testing is to provide one (1) 7 day test result and two (2) 28 day test results.</t>
+  </si>
+  <si>
+    <t>Reference - Quotation Notes Cl25. &amp; Cl40.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 7_x000D_
+Cl4.1</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 7_x000D_
+Cl4.3</t>
+  </si>
+  <si>
+    <t>Finishing of concrete</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+All surfaces of concrete that are exposed to view in the completed structure are finished such that:_x000D_
+_x000D_
+(a) immediately after the removal of forms, all fins and other projections are ground off, all pockets and honeycombs are cleaned and filled with a stiff cement mortar having the same proportion of cement and sand as the original concrete, and the surface of the patch is ground flush;_x000D_
+_x000D_
+(b) decks are roughened slightly by brooming or other approved method before initial set;_x000D_
+_x000D_
+(c) kerb and channel, invert crossings, vehicle crossings and industrial crossings are finished with an approved steel finishing tool;_x000D_
+_x000D_
+(d) footpaths and pram ramps are finished with a wooden float and broomed.</t>
+  </si>
+  <si>
+    <t>Check Item - Check 7 Verify</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 7_x000D_
+Cl6.1</t>
+  </si>
+  <si>
+    <t>Curing of concrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Curing shall be commenced immediately on completion of the finishing of exposed surfaces or within 30 minutes of removal of the forms from other surfaces and shall be completed using either of the following method:_x000D_
+(a) Spraying and approved curing compound; or_x000D_
+(b) Using water sprays or wet sand in which case the surfaces are kept moist 24 hours a day for the full period specified </t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 7_x000D_
+Cl6.3</t>
+  </si>
+  <si>
+    <t>Removal of Forms / Falsework</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 7_x000D_
+Cl6.2</t>
+  </si>
+  <si>
+    <t>Minor Concrete Works (Kerb &amp; Channel)</t>
+  </si>
+  <si>
+    <t>Kerb and channel</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - kerb and channel rehabilitation works, the kerb and channel are to be constructed in accordance to the LCC Supplementary Specification for Kerb &amp; Channel Rehabilitation Projects</t>
+  </si>
+  <si>
+    <t>Reference - Quotation Notes Cl41.</t>
+  </si>
+  <si>
+    <t>Pavement under kerb and channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Where pavement thickness exceeds 175mm in depth, the pavement shall extends under the kerb._x000D_
+_x000D_
+Where the pavement thickness does not exceed 175mm in depth, the kerb and channel shall be firmly bedded on 100mm road base aggregate compacted to 95 percent modified dry density_x000D_
+</t>
+  </si>
+  <si>
+    <t>Machine placed kerb and channel</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+1. Where a kerb and channel machine is used to place the replacement kerb and channel, a 20MPa kerb mix with maximum aggregate size of between 5mm and 10mm shall be used._x000D_
+_x000D_
+2. A minimum slump of 12mm shall be adopted for this mix. The concrete shall be fully compacted and finished with a high strength sand/cement slurry to the profile as specified</t>
+  </si>
+  <si>
+    <t>Check Item - Check &amp; verify</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 8_x000D_
+Cl6.4.1</t>
+  </si>
+  <si>
+    <t>Hand placed kerb and channel</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+1. Where the replacement kerb and channel is placed and finished by "hand" an N25/20 grade concrete shall be used with a minimum 40mm and maximum 80mm slump._x000D_
+_x000D_
+2. The concrete shall be fully compacted with vibratory equipment, shaped and trowel finished to match the profile of the adjoining kerb and channel or to a profile as otherwise specified._x000D_
+_x000D_
+3. Transitions between different kerb types shall be done over a distance of at least 2.0 metres.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 8_x000D_
+Cl6.4.2</t>
+  </si>
+  <si>
+    <t>Backfill behind kerb &amp; channel</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - When suitably cured, the kerb and channel shall be backfilled with a suitable granular material, compacted and finished with 50mm of topsoil and turfed with a minimum 'B' grade couch turf. Excavated pavement material may be reused as kerb backfill.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 8_x000D_
+Cl6.5.1</t>
+  </si>
+  <si>
+    <t>Linemarking</t>
+  </si>
+  <si>
+    <t>Linemarking Accordance</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - All Linemarking shall be in accordance with manual of uniform traffic control devices. Surplus pavement markings shall be removed by a method approved Council</t>
+  </si>
+  <si>
+    <t>Reference - Project Drawings General Notes Cl11.</t>
+  </si>
+  <si>
+    <t>Minimum Placement Period between Operations</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - The Contractor to ensure that there is a minimum period of 72 hours between the placement of asphalt wearing course/spray seal surfacing and line marking installation.</t>
+  </si>
+  <si>
+    <t>Reference - Quotation Notes Cl63.</t>
+  </si>
+  <si>
+    <t>Application of Linemarking</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Linemarking (excluding thermoplastic) shall be marked at an application rate of 0.375 litres/m2 +/- 0.025 litres/m2. All transverse Linemarking and arrows are to be placed in Thermoplastic unless otherwise directed by the Superintendent.</t>
+  </si>
+  <si>
+    <t>Reference - Operations Specification Cl31.</t>
+  </si>
+  <si>
+    <t>Landscaping</t>
+  </si>
+  <si>
+    <t>Landscaping Materials</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Materials and workmanship comply with the relevant Australian Standards. Manufactured items used in accordance with manufacturer's specification. All landscape materials (soil, plants and mulch) free from fire ants, certificate or legislation.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3_x000D_
+Cl2.1</t>
+  </si>
+  <si>
+    <t>Landscaping Commencement</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Prior to landscaping works commencement, the Contractor shall liase with LCC Site Representative to confirm locations / spacing of plants.</t>
+  </si>
+  <si>
+    <t>Reference - Quotation Note No. 85</t>
+  </si>
+  <si>
+    <t>Plant Management</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Plant protection, works near trees, damage, maintenance, removal and weed eradication to be in accordance with Standard Specification No. 3 Cl 3.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3 Cl 3</t>
+  </si>
+  <si>
+    <t>Earthworks</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Erosion and sediment control, clearing and grubbing, stockpiles, softworks grades and earth mounds to be in accordance with Standard Specification No. 3 Cl 4._x000D_
+_x000D_
+The maximum grade for a garden bed is 1 in 3._x000D_
+The maximum grade for a garden bed is 1 in 4.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3 Cl 4</t>
+  </si>
+  <si>
+    <t>Hardworks</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Edges to garden areas, outdoor furniture, play areas, and bollards to be in accordance with Standard specification No. 3 Cl 5</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3 Cl 5</t>
+  </si>
+  <si>
+    <t>Softworks</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Cultivation, soil, fertiliser, plant material, tree planting, transplanting, plant size, mulch, organic stabilisation matting, turfing and grassing and rehabilitation planting to be in accordance with Standard Specification No. 3 Cl6</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 3 Cl 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Maintenance works and spraying of plants to be in accordance with Standard specification No. 3, Cl 7.</t>
+  </si>
+  <si>
+    <t>Reference - Maintenance works and spraying of plants to be in accordance with Standard specification No. 3, Cl 7.</t>
+  </si>
+  <si>
+    <t>Revegetation (Topsoil)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - All embankment batters are to be topsoiles with a minimum 75mm of topsoil. Prior to topsoil being placed, the batters shall be lightly tyned to a depth of 75mm.</t>
+  </si>
+  <si>
+    <t>Reference - Operations Specification RID/14/2018 and RID/15/2018 Civil Construction Services Part 32.</t>
+  </si>
+  <si>
+    <t>Revegetation (Grassing)</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Unless directed otherwise by the Superintendent, grassing shall be rolled turfed (not seed or hydromulched products). _x000D_
+Sufficient allowance made by Contractor to maintain turf with watering such that turf does not brown off and until such time that turf has taken root in topsoil and is not able to be lifted away from the ground by hand.</t>
+  </si>
+  <si>
+    <t>Contractual Provisions</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - The Contractor must obtain written approval of the Superintendent before ordering alternative materials.</t>
+  </si>
+  <si>
+    <t>Reference - Standard specification No. 8_x000D_
+Cl8</t>
+  </si>
+  <si>
+    <t>Reinforcement for Drainage Structures</t>
+  </si>
+  <si>
+    <t>Material for Reinforcement</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - All materials for reinforcement comply with the relevant Australian Standards as per Standard Specification No. 9 Cl 2.1</t>
+  </si>
+  <si>
+    <t>Reference - All materials for reinforcement comply with the relevant Australian Standards as per Standard Specification No. 9 Cl 2.1</t>
+  </si>
+  <si>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Reinforcement is to be protected from damage at all times. Reinforcement is stacked in racks or on timber above ground, kept clear of contamination and cleaned if accidental contamination occurs.</t>
+  </si>
+  <si>
+    <t>Reference - Standard Specification No. 9 Cl 3.1</t>
+  </si>
+  <si>
+    <t>Cutting &amp; Bending</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Approval to hot bend reinforcement on site.</t>
+  </si>
+  <si>
+    <t>Reference - Standard Specification No. 9 Cl 4.1</t>
+  </si>
+  <si>
+    <t>Surface Condition of Reinforcement</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Reinforcement projecting from a previous concreting operation is cleaned free of adhering concrete or loose slurry prior to any further embedment.</t>
+  </si>
+  <si>
+    <t>Reference - Standard Specification No. 9 Cl 5</t>
+  </si>
+  <si>
+    <t>Placing &amp; Fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria and Frequency (Project Specific) - Reinforcement is placed in position as shown in the approved drawings </t>
+  </si>
+  <si>
+    <t>Reference - Standard Specification No. 9 Cl 6</t>
+  </si>
+  <si>
+    <t>Tolerance on Position of Reinforcement</t>
+  </si>
+  <si>
+    <t>Reference - Standard Specification No. 9 Cl 7.1</t>
+  </si>
+  <si>
+    <t>Splicing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - The splicing of reinforcement occurs only in the locations shown in the approved drawings.</t>
+  </si>
+  <si>
+    <t>Reference - Standard Specification No. 9 Cl 8.1</t>
+  </si>
+  <si>
+    <t>Substitution</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Approval for the substitution of reinforcement.</t>
+  </si>
+  <si>
+    <t>Reference - Standard Specification No. 9 Cl 9.1</t>
+  </si>
+  <si>
+    <t>Fibre Reinforcement</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Approval to incorporate fibre reinforcement into the works.</t>
+  </si>
+  <si>
+    <t>Reference - Standard Specification No. 9 Cl 10.1</t>
+  </si>
+  <si>
+    <t>Installation of Precast Access Chambers / Gully Pits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria and Frequency (Project Specific) - Where Pre-cast systems are constructed by lowering the precast shaft section onto a precast base and a converter slab onto the precast shaft. In accordance with manufacturers' instructions, an Epoxy resin has be applied to both joint surfaces prior to joining._x000D_
+</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Concrete top slabs, inlet units and converter slabs shall be joined to the access champers/gully pits using cement mortar or epoxy mortar.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - The consistency and workability of concrete shall be such that it complies with the Slump limits specified in Table 2.4.1 below._x000D_
+_x000D_
+Any extra water that is added to concrete on site shall be measured and recorded and the concrete shall be thoroughly remixed and reslumped.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Ready mixed concrete is placed and compacted within 1 hour 15 minutes of charging the mixer for concrete temperatures up to 30°C and within 30 minutes of charging the mixer. No concrete with a temperature higher than 30°C is placed unless otherwise approved by the local government.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Forms/Falswork shall not be removed from the concrete until the times specified the table below are met:</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Where stormwater pipe is laid in a drainage easement or property other than the road reserve, backfill material may comply to the requirements of general fill providing that a minimum CBR of 5 is evidenced. 5 or 10mm drainage screenings are to be fully wrapped in A34 geofabric for all stormwater trenches located within a property easement or park land_x000D_
+_x000D_
+Compaction Testing: 1 test per 100 m³, 2 per Lot.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Subgrade Replacement - Type 2.5 CBR &gt; 15_x000D_
+Sub-Base Course - Type 2.3 CBR &gt; 45_x000D_
+Base Course - Type 2.1 CBR &gt; 60_x000D_
+_x000D_
+Equivalent unbound gravel materials for road pavements as per MRTS05 are considered acceptable for use in this project, should the Contractor determine_x000D_
+materials adhering to MRTS05, are more readily available. Contractor is to advise the Superintendent of MRTS05 materials proposed including grading envelopes, prior to use in the contract.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Ready mixed concrete shall be supplied by a manufacturer:_x000D_
+(a) approved by the local government;_x000D_
+(b) which has an accredited quality assurance system.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Ready mixed concrete is placed and compacted within 1 hour 15 minutes of charging the mixer for concrete temperatures up to 30°C and within 30 minutes of charging the mixer. No concrete with a temperature higher than 30°C is placed unless otherwise approved by the_x000D_
+local government.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Forms/Falsework shall not be removed from the concrete until the times specified the table below are met:</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Trench Foundation inspected prior to placing of Structure. Hold Point_x000D_
+_x000D_
+If poor trench conditions exist, the pipe, or structure shall be supported by rock ballast which is_x000D_
+ • sound igneous or metamorphic material that does not disintegrate in water;_x000D_
+ • of a 50mm nominal size;_x000D_
+ • completely wrapped in a non-woven geotextile fabric 1.9mm minimum thickness;_x000D_
+ • tamped into place.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Precast base installed in the location and levels shown in drawing within the following tolerances:_x000D_
+ o invert levels–±50mm;_x000D_
+ o manhole locations–within 1,000mm of design;_x000D_
+ o gully locations–within 300mm of design</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - Stormwater structures set out in accordance with the details shown in the drawing and within the following tolerances:_x000D_
+ o invert levels – ±50mm;_x000D_
+ o manhole locations – within 1,000mm of design;</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Pipes are laid from the discharge end upstream to the following tolerances:_x000D_
+ o invert levels–±50mm;_x000D_
+ o manhole locations–within 1,000mm of design;_x000D_
+ o gully locations–within 300mm of design.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+• Drainage lines and structures shall set out in accordance with the details shown in the Drawings_x000D_
+_x000D_
+• Excavation constructed to the shapes, alignment, and level shown on the drawings bottom of excavations shall be trimmed to the tolerances specified_x000D_
+_x000D_
+• Where excavation is carried out in asphalt pavement, the pavement has been cut 150mm beyond the limits of the trench excavation width _x000D_
+_x000D_
+• Trench not excavated wider than the trench width shown on the approved drawings._x000D_
+_x000D_
+• All excavations are made in a careful manner to ensure they are rendered secure and safe by sheeting or other means</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+• Pipes are laid true to line and grade, and are free draining and firmly bedded._x000D_
+_x000D_
+• Circular pipes with elliptical reinforcement supplied with marked “Top” and “Bottom” to indicate the correct position when laid and such pipes are laid correctly according to the marking._x000D_
+_x000D_
+• For pipes up to and including 600mm diameter, the socketed end of the pipe is laid upstream and a shallow excavation is made under the socket of each pipe so that the pipe fully rests for its full length of barrel upon the bedding material in the trench._x000D_
+_x000D_
+• Elastomeric ring joints are carefully made ensuring the spigot and socket are clean, and the rubber ring is rolled evenly into place and elastomeric ring lubricant is used for fibre reinforced concrete pipes._x000D_
+_x000D_
+• For concrete pipes greater than 600mm diameter, internal interlocking joints may be used and the pipes are laid generally as specified in section 4.2 (Pipe laying) of this standard specification._x000D_
+_x000D_
+• Externally the pipe joint is sealed with an approved proprietary manufactured natural rubber jointing band._x000D_
+_x000D_
+• Lifting holes in all pipes are plugged by a method approved by the local government.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+When a flush jointed pipe is used:_x000D_
+• the first pipe (downstream) is bedded to established line and grade with the groove upstream;_x000D_
+• the external band is installed after the joint is made, in accordance with manufacturer’s recommendations.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+Reinforcment is fabricated to the shape and dimensions shown on the approved drawings and within the following tolerances:_x000D_
+(a) on any overall dimension for bars and fabric except where used as a fitment_x000D_
+ (i) length up to 600mm, 25mm, +0; or_x000D_
+ (ii) length over 600mm, 40mm, +0; or_x000D_
+(b) on any overall dimension of bars or fabric used as a fitment:_x000D_
+ (i) for deformed bars and fabric, 15mm, +0; or_x000D_
+ (ii) for plain round bars and wire, 10mm, +0; or_x000D_
+(c) on the overall offset dimension of a cranked column bar -0, +10mm; or_x000D_
+(d) for the sawn or machined end of a straight bar intended for use as an end-bearing splice, the angular deviation from the square measured in relation to the end 300mm is within 2 degrees.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria and Frequency (Project Specific) - _x000D_
+The deviation from the specified position of reinforcement and densons do not exceed:_x000D_
+(a) for positions controlled by cover:_x000D_
+ (i) in beams, girders, slabs, columns and walls, -5mm and +10mm;_x000D_
+ (ii) in slabs-on-ground including foorings of walls and culverts, -10mm and +20mm;_x000D_
+ (iii) in footings cast in the ground where the depth of the footing is 500mm or more, -20mm and +40mm;_x000D_
+(b) for positions not controlled by cover:_x000D_
+ (i) the location of reinforcement on a profile, 10mm;_x000D_
+ (ii) the position of the ends of reinforcement along the line of the bar, 50mm;_x000D_
+ (iii) the spacing of bars in walls and slabs and of fitments in beams and columns, whichever is the greater of:_x000D_
+ (A) 10 percent of the specified spacing; or_x000D_
+ (B) 15mm, whichever is the greater.</t>
+  </si>
+  <si>
+    <t>Unbound Granular Pavements</t>
+  </si>
+  <si>
+    <t>itp</t>
   </si>
 </sst>
 </file>
@@ -189,7 +1089,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +1269,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -530,8 +1454,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,16 +1838,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I1"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="176" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="226" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
   </cols>
@@ -950,7 +1882,3559 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>43</v>
+      </c>
+      <c r="B187" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>45</v>
+      </c>
+      <c r="B188" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>43</v>
+      </c>
+      <c r="B190" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>45</v>
+      </c>
+      <c r="B191" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>43</v>
+      </c>
+      <c r="B228" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>45</v>
+      </c>
+      <c r="B229" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>43</v>
+      </c>
+      <c r="B231" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>45</v>
+      </c>
+      <c r="B232" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+    </row>
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>14</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>14</v>
+      </c>
+      <c r="B256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>14</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>14</v>
+      </c>
+      <c r="B260" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>14</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>14</v>
+      </c>
+      <c r="B264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>14</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>14</v>
+      </c>
+      <c r="B272" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>43</v>
+      </c>
+      <c r="B273" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>45</v>
+      </c>
+      <c r="B274" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>14</v>
+      </c>
+      <c r="B275" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>43</v>
+      </c>
+      <c r="B276" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>45</v>
+      </c>
+      <c r="B277" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+    </row>
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>14</v>
+      </c>
+      <c r="B283" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>14</v>
+      </c>
+      <c r="B284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>14</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>14</v>
+      </c>
+      <c r="B292" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>14</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>14</v>
+      </c>
+      <c r="B296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>43</v>
+      </c>
+      <c r="B305" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>45</v>
+      </c>
+      <c r="B306" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>43</v>
+      </c>
+      <c r="B308" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>45</v>
+      </c>
+      <c r="B309" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="2"/>
+      <c r="I312" s="2"/>
+    </row>
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>14</v>
+      </c>
+      <c r="B315" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>14</v>
+      </c>
+      <c r="B317" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>14</v>
+      </c>
+      <c r="B319" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>14</v>
+      </c>
+      <c r="B321" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+      <c r="B323" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>14</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>14</v>
+      </c>
+      <c r="B325" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>14</v>
+      </c>
+      <c r="B327" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>43</v>
+      </c>
+      <c r="B328" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>45</v>
+      </c>
+      <c r="B329" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>14</v>
+      </c>
+      <c r="B330" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>43</v>
+      </c>
+      <c r="B331" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>45</v>
+      </c>
+      <c r="B332" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2"/>
+      <c r="I335" s="2"/>
+    </row>
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>14</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>14</v>
+      </c>
+      <c r="B339" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>14</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>14</v>
+      </c>
+      <c r="B342" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>14</v>
+      </c>
+      <c r="B343" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>14</v>
+      </c>
+      <c r="B344" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>14</v>
+      </c>
+      <c r="B347" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>14</v>
+      </c>
+      <c r="B348" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>14</v>
+      </c>
+      <c r="B349" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>14</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>14</v>
+      </c>
+      <c r="B352" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>14</v>
+      </c>
+      <c r="B353" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>14</v>
+      </c>
+      <c r="B355" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+      <c r="B356" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>14</v>
+      </c>
+      <c r="B357" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>14</v>
+      </c>
+      <c r="B359" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>14</v>
+      </c>
+      <c r="B360" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>14</v>
+      </c>
+      <c r="B361" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>14</v>
+      </c>
+      <c r="B363" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>14</v>
+      </c>
+      <c r="B364" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>14</v>
+      </c>
+      <c r="B365" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>14</v>
+      </c>
+      <c r="B367" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>14</v>
+      </c>
+      <c r="B368" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>14</v>
+      </c>
+      <c r="B369" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>14</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>14</v>
+      </c>
+      <c r="B372" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>14</v>
+      </c>
+      <c r="B373" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>14</v>
+      </c>
+      <c r="B375" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>14</v>
+      </c>
+      <c r="B376" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>14</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>14</v>
+      </c>
+      <c r="B380" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>43</v>
+      </c>
+      <c r="B381" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>45</v>
+      </c>
+      <c r="B382" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>14</v>
+      </c>
+      <c r="B383" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>43</v>
+      </c>
+      <c r="B384" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>45</v>
+      </c>
+      <c r="B385" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D388" s="2"/>
+      <c r="E388" s="2"/>
+      <c r="F388" s="2"/>
+      <c r="G388" s="2"/>
+      <c r="H388" s="2"/>
+      <c r="I388" s="2"/>
+    </row>
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>14</v>
+      </c>
+      <c r="B391" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>14</v>
+      </c>
+      <c r="B392" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>14</v>
+      </c>
+      <c r="B393" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>14</v>
+      </c>
+      <c r="B395" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>14</v>
+      </c>
+      <c r="B396" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>14</v>
+      </c>
+      <c r="B397" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>14</v>
+      </c>
+      <c r="B399" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>14</v>
+      </c>
+      <c r="B400" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>14</v>
+      </c>
+      <c r="B401" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>14</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>14</v>
+      </c>
+      <c r="B405" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>14</v>
+      </c>
+      <c r="B406" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>14</v>
+      </c>
+      <c r="B408" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>14</v>
+      </c>
+      <c r="B409" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>14</v>
+      </c>
+      <c r="B410" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>14</v>
+      </c>
+      <c r="B412" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>14</v>
+      </c>
+      <c r="B413" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>14</v>
+      </c>
+      <c r="B414" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>14</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>14</v>
+      </c>
+      <c r="B417" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>14</v>
+      </c>
+      <c r="B418" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>14</v>
+      </c>
+      <c r="B420" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>14</v>
+      </c>
+      <c r="B421" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>14</v>
+      </c>
+      <c r="B422" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>14</v>
+      </c>
+      <c r="B425" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>14</v>
+      </c>
+      <c r="B426" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>14</v>
+      </c>
+      <c r="B427" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>14</v>
+      </c>
+      <c r="B430" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>14</v>
+      </c>
+      <c r="B431" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>14</v>
+      </c>
+      <c r="B432" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>14</v>
+      </c>
+      <c r="B435" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>43</v>
+      </c>
+      <c r="B436" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>45</v>
+      </c>
+      <c r="B437" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>14</v>
+      </c>
+      <c r="B438" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>43</v>
+      </c>
+      <c r="B439" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>45</v>
+      </c>
+      <c r="B440" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I441" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="checklist"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>